--- a/public/files/example.xlsx
+++ b/public/files/example.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Frontend_WEB\2024\NEXT\onstock\_test-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368238CE-71E4-4C25-99E5-0AC86A033AD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F5193-A7E5-411E-9BE3-A1FD0C532FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="130" windowWidth="18790" windowHeight="20850" activeTab="1" xr2:uid="{D3FC9229-7F2C-4519-9C04-C0025B27E5CB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3FC9229-7F2C-4519-9C04-C0025B27E5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
     <sheet name="Список товаров" sheetId="2" r:id="rId2"/>
     <sheet name="Правила заполнения полей" sheetId="3" r:id="rId3"/>
+    <sheet name="Производители" sheetId="4" r:id="rId4"/>
+    <sheet name="Категории" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>MrRoboto</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{581B02CF-D675-4F29-B83D-5252217811D8}">
@@ -79,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Составляйте по схеме: тип товара + бренд или производитель + модель + отличительные характеристики.
+          <t xml:space="preserve">Сокращенное название.
 </t>
         </r>
         <r>
@@ -99,7 +102,9 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>ЦПУ  Siemens 1500 Резервированный</t>
+          <t xml:space="preserve">ЦПУ  Siemens 1500 Резервированный
+Не обязательное на текущий момент поле
+</t>
         </r>
       </text>
     </comment>
@@ -136,28 +141,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4E7E7ACE-CF41-4BE6-B9C4-1490A6F2EB18}">
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{183013BE-9FEF-46E9-8F89-A8E9DFA42667}">
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Ваше название категории.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Пример: Контроллеры
-</t>
+          <t>Выберите наиболее подходящую категорию</t>
         </r>
       </text>
     </comment>
@@ -170,7 +164,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Название производителя или бренда.
+          <t xml:space="preserve">Выберите из выпадающего списка название производителя или бренда.
 </t>
         </r>
         <r>
@@ -228,27 +222,100 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Длина, ширина, высота в упаковке. Должны быть разделены символом «/» без пробелов. Можно указывать с точностью до тысячных, разделитель целой и дробной части — точка или запятая.
+          <t xml:space="preserve">В шт. Целое число.
 </t>
         </r>
         <r>
           <rPr>
             <b/>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Пример: </t>
+          <t xml:space="preserve">
+Пример: 22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{D5EBC18E-FE82-4DB6-96BE-CEBCF3DE3E23}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">даты в формате: 
+</t>
         </r>
         <r>
           <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve"> 10 | 05.06.2024</t>
+          <t>dd/mm/yyyy,
+dd-mm-yyyy, dd.mm.yyyy.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{3845477E-DD9C-46C8-B948-1BA4A3C35310}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">В шт. Целое число.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Пример: 22</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{4C42CEB9-85BD-4278-8FB8-4B897A4C3D98}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">даты в формате: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>dd/mm/yyyy,
+dd-mm-yyyy, dd.mm.yyyy.</t>
         </r>
       </text>
     </comment>
@@ -257,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t xml:space="preserve">Инструкция	</t>
   </si>
@@ -328,9 +395,6 @@
     <t>Артикул производителя SKU *</t>
   </si>
   <si>
-    <t>Документация</t>
-  </si>
-  <si>
     <t>На складе сегодня</t>
   </si>
   <si>
@@ -344,9 +408,6 @@
   </si>
   <si>
     <t>Siemens</t>
-  </si>
-  <si>
-    <t>10 | 05.06.2024</t>
   </si>
   <si>
     <r>
@@ -484,19 +545,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Название товара *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -514,60 +562,6 @@
         <charset val="204"/>
       </rPr>
       <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Ссылка на изображение *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Ссылка (URL) изображение товара в хорошем качестве. 
-Можно указать до 20 ссылок через запятую. При этом изображение по первой ссылке будет основным. Оно используется в качестве изображения товара в поиске Маркета и на карточке товара. Другие изображения товара доступны в режиме просмотра увеличенных изображений.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Требования к ссылкам:
-• Допустимые протоколы URL изображения — HTTP или HTTPS.
-• Допускаются кириллические ссылки.
-• Максимальная длина URL — 512 символов.
-• Допустимы только прямые ссылки на изображения и ссылки на изображения на Яндекс.Диске (при этом ссылки на другие облачные сервисы не принимаются). Недопустимы относительные ссылки, ссылки на HTML-страницу, на любые облачные сервисы, кроме Яндекс.Диска.
-• Нельзя использовать изображения других товаров.
-• Допустимо использовать ссылку на одно изображение для нескольких товаров, если оно применимо сразу ко всем этим товарам. Например, фотография коробки для телефонов разного цвета.
-• Недопустима ссылка на логотип магазина или «заглушку» (страницу, где написано «картинка отсутствует» и т. п.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>http://example-shop.ru/item59.png</t>
     </r>
   </si>
   <si>
@@ -611,19 +605,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Категория в вашем магазине *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -659,40 +640,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Необязательное</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Это должна быть прямая ссылка на инструкцию (ссылки, заканчивающиеся на PDF, JPG, PNG). Размер — до 30 МБ, можно указать до 6 ссылок через запятую. Вы можете задать название инструкции, которое будут видеть покупатели, по умолчанию будет использоваться название «Инструкция».</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Инструкция сборки | https://example.com/scheme.pdf, Правила эксплуатации | https://example.com/user_manual.pdf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -732,167 +679,290 @@
     <t>description</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>6ES7307-1EA01-0AA0</t>
+  </si>
+  <si>
+    <t>6ES7314-6CH04-0AB0</t>
+  </si>
+  <si>
+    <t>6ES7314-6EH04-0AB0</t>
+  </si>
+  <si>
+    <t>6ES7315-2EH14-0AB0</t>
+  </si>
+  <si>
+    <t>SIMATIC S7-300, СТАБИЛИЗИРОВАННЫЙ БЛОК ПИТАНИЯ PS307 ВХОД: ~120/230 В, ВЫХОД: =24 В/5 A</t>
+  </si>
+  <si>
+    <t>SIMATIC S7-300, КОМПАКТНОЕ ЦПУ CPU 314C-2 DP С MPI, 24 DI/16 DO, 4AI, 2AO, 1 PT100, 4 БЫСТРЫХ СЧЁТЧИКА (60 КГЦ), ВСТР. ИНТЕРФЕЙС DP, ВСТР. БЛОК ПИТАНИЯ =24 В, 192 КБАЙТ РАБОЧЕЙ ПАМЯТИ, ДЛЯ РАБОТЫ НЕОБХОДИМЫ ФРОНТШТЕКЕРЫ (2 X 40ПОЛ.) И КАРТА ПАМЯТИ MMC</t>
+  </si>
+  <si>
+    <t>SIMATIC S7-300, КОМПАКТНОЕ ЦПУ CPU 314C-2PN/DP СО 192 КБ РАБОЧЕЙ ПАМЯТИ, 24 DI/16 DO, 4AI, 2AO, 1 PT100, 4 БЫСТРЫХ СЧЁТЧИКА (60 КГЦ), 1. ИНТЕРФЕЙС MPI/DP 12МБИТ/С, 2. ИНТЕРФЕЙС ETHERNET PROFINET, С 2Х-ПОРТОВЫМ КОММУТАТОРОМ, ВСТРОЕННЫЙ БЛОК ПИТАНИЯ =24 В,</t>
+  </si>
+  <si>
+    <t>SIMATIC S7-300, ЦПУ CPU 315-2 PN/DP, 384 КБАЙТ РАБОЧЕЙ ПАМЯТИ, 1. ИНТЕРФЕЙС MPI/DP 12 МБИТ/С, 2. ИНТЕРФЕЙС ETHERNET PROFINET, С 2Х-ПОРТОВЫМ КОММУТАТОРОМ, ДЛЯ РАБОТЫ НЕОБХОДИМА КАРТА ПАМЯТИ MICRO MEMORY CARD</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>15.03.2025</t>
+  </si>
+  <si>
+    <t>05.02.2025</t>
+  </si>
+  <si>
+    <t>25.03.2025</t>
+  </si>
+  <si>
+    <t>10.06.2025</t>
+  </si>
+  <si>
+    <t>newdelivery_date_1</t>
+  </si>
+  <si>
+    <t>newdelivery_date_2</t>
+  </si>
+  <si>
+    <t>15.02.2025</t>
+  </si>
+  <si>
+    <t>28.03.2025</t>
+  </si>
+  <si>
+    <t>20.06.2025</t>
+  </si>
+  <si>
+    <t>Промышленные системы автоматизации</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
-    <t>newdelivery</t>
-  </si>
-  <si>
-    <t>15 | 15.09.2024</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>6ES7307-1EA01-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7314-6CH04-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7314-6EH04-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7315-2EH14-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7321-1BH02-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7321-1BL00-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7322-1BL00-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7322-1HF10-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7331-1KF02-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7331-7KF02-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7331-7NF00-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7332-5HB01-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7332-5HD01-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7332-5HF00-0AB0</t>
-  </si>
-  <si>
-    <t>6ES7341-1CH02-0AE0</t>
-  </si>
-  <si>
-    <t>6ES7390-1AE80-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7390-1AF30-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7392-1AM00-0AA0</t>
-  </si>
-  <si>
-    <t>6ES7392-1BJ00-0AA0</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, СТАБИЛИЗИРОВАННЫЙ БЛОК ПИТАНИЯ PS307 ВХОД: ~120/230 В, ВЫХОД: =24 В/5 A</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, КОМПАКТНОЕ ЦПУ CPU 314C-2 DP С MPI, 24 DI/16 DO, 4AI, 2AO, 1 PT100, 4 БЫСТРЫХ СЧЁТЧИКА (60 КГЦ), ВСТР. ИНТЕРФЕЙС DP, ВСТР. БЛОК ПИТАНИЯ =24 В, 192 КБАЙТ РАБОЧЕЙ ПАМЯТИ, ДЛЯ РАБОТЫ НЕОБХОДИМЫ ФРОНТШТЕКЕРЫ (2 X 40ПОЛ.) И КАРТА ПАМЯТИ MMC</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, КОМПАКТНОЕ ЦПУ CPU 314C-2PN/DP СО 192 КБ РАБОЧЕЙ ПАМЯТИ, 24 DI/16 DO, 4AI, 2AO, 1 PT100, 4 БЫСТРЫХ СЧЁТЧИКА (60 КГЦ), 1. ИНТЕРФЕЙС MPI/DP 12МБИТ/С, 2. ИНТЕРФЕЙС ETHERNET PROFINET, С 2Х-ПОРТОВЫМ КОММУТАТОРОМ, ВСТРОЕННЫЙ БЛОК ПИТАНИЯ =24 В,</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, ЦПУ CPU 315-2 PN/DP, 384 КБАЙТ РАБОЧЕЙ ПАМЯТИ, 1. ИНТЕРФЕЙС MPI/DP 12 МБИТ/С, 2. ИНТЕРФЕЙС ETHERNET PROFINET, С 2Х-ПОРТОВЫМ КОММУТАТОРОМ, ДЛЯ РАБОТЫ НЕОБХОДИМА КАРТА ПАМЯТИ MICRO MEMORY CARD</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 321, МОДУЛЬ ВВОДА ДИСКРЕТНЫХ СИГНАЛОВ: ОПТОЭЛЕКТРОННОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 16 ВХОДОВ =24В. 20-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 321, МОДУЛЬ ВВОДА ДИСКРЕТНЫХ СИГНАЛОВ: ОПТОЭЛЕКТРОННОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 32 ВХОДА =24В (1 X 32 ВХОДА). 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 322, МОДУЛЬ ВЫВОДА ДИСКРЕТНЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 32 ВЫХОДА =24В/0.5A, СУММ.КВРНЫЙ ВЫХОДНОЙ ТОК 8А. 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 322, МОДУЛЬ ВЫВОДА ДИСКРЕТНЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 8 ВЫХОДОВ С ЗАМЫКАЮЩИМИ КОНТАКТАМИ РЕЛЕ, =24В/5A ИЛИ ~230В/5A. 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, МОДУЛЬ АНАЛОГОВОГО ВВОДА SM 331, ОПТОИЗОЛИРОВАННЫЙ, 8 AI, РАЗРЕШЕНИЕ 13 БИТ, U/I/СОПРОТИВЛЕНИЕ/PT100, NI100, NI1000, LG-NI1000, PTC / KTY, 66 МС ЦИКЛ МОДУЛЯ, 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 331, МОДУЛЬ ВВОДА АНАЛОГОВЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 8 ВХОДОВ U/ I/ ТЕРМОЭЛЕМЕНТЫ, 9/ 12/ 14 БИТ, ПРЕРЫВАНИЯ, ДИАГНОСТИКА. 20-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 331, МОДУЛЬ ВВОДА АНАЛОГОВЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 8 ВХОДОВ ±5В/ ±10В/ 1...5В/ ±20MA/ 0(4)...20MA, 16 БИТ (55 МС), 1 ОБЩАЯ ТОЧКА (50В). 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 332, МОДУЛЬ ВЫВОДА АНАЛОГОВЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 2 ВЫХОДА U/ I, 11/12 БИТ. 20-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 332, МОДУЛЬ ВЫВОДА АНАЛОГОВЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 4 ВХОДА U/ I, 11/12 БИТ, ДИАГНОСТИКА. 20-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, SM 332, МОДУЛЬ ВЫВОДА АНАЛОГОВЫХ СИГНАЛОВ: ГАЛЬВАНИЧЕСКОЕ РАЗДЕЛЕНИЕ ВНЕШНИХ И ВНУТРЕННИХ ЦЕПЕЙ, 8 ВЫХОДОВ U/I, 11/12 БИТ, ДИАГНОСТИКА. 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ЗАКАЗЫВАЕТСЯ ОТДЕЛЬНО</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, КОММУНИКАЦИОНЫЙ ПРОЦЕССОР CP341С ИНТЕРФЕЙСОМ RS422/485, ВКЛЮЧАЯ ПАКЕТ КОНФИГУРИРОВАНИЯ НА CD</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, ПРОФИЛЬНАЯ ШИНА S7-300 ДЛИНОЙ 480MM</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, ПРОФИЛЬНАЯ ШИНА S7-300 ДЛИНОЙ 530MM</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, 40-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ДЛЯ СИГНАЛЬНЫХ МОДУЛЕЙ, КЛЕММ С ВИНТОВЫМИ ЗАЖИМАМИ</t>
-  </si>
-  <si>
-    <t>SIMATIC S7-300, 20-ПОЛЮСНЫЙ ФРОНТАЛЬНЫЙ СОЕДИНИТЕЛЬ ДЛЯ СИГНАЛЬНЫХ МОДУЛЕЙ, КЛЕММ С КОНТАКТАМИ-ЗАЩЕЛКАМИ</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>6ED1052-1FB08-0BA2</t>
-  </si>
-  <si>
-    <t>6ED1052-2FB00-0BA6 </t>
-  </si>
-  <si>
-    <t>6ED1052-1MD00-0BA6 </t>
-  </si>
-  <si>
-    <t>6ED1052-2MD00-0BA6</t>
-  </si>
-  <si>
-    <t>LOGO! 230RCE, логический модуль с дисплеем, питание/I/O: 115 В/230 В/реле, 8 DI/4 DQ</t>
-  </si>
-  <si>
-    <t>LOGO! 230RCO, ЛОГИЧЕСКИЙ МОДУЛЬ, БЕЗ ДИСПЛЕЯ, НАПРЯЖЕНИЕ ПИТАНИЯ/ВХОДЫ/ВЫХОДЫ: 230В/230В/РЕЛЕ, 8 ДИСКРЕТНЫХ ВХОДОВ/4 ДИСКРЕТНЫХ ВЫХОДА, ПАМЯТЬ НА 200 БЛОКОВ, РАСШИРЯЕМЫЙ ВНЕШНИМИ МОДУЛЯМИ 230В AC/DC</t>
-  </si>
-  <si>
-    <t>LOGO! 12/24RC, ЛОГИЧЕСКИЙ МОДУЛЬ, ДИСПЛЕЙ, НАПРЯЖЕНИЕ ПИТАНИЯ/ВХОДЫ/ВЫХОДЫ: 12/24В DC/РЕЛЕ, 8 ДИСКРЕТНЫХ ВХОДОВ (4 АНАЛОГОВЫХ)/4 ДИСКРЕТНЫХ ВЫХОДА, ПАМЯТЬ НА 200 БЛОКОВ, РАСШИРЯЕМЫЙ ВНЕШНИМИ МОДУЛЯМИ</t>
-  </si>
-  <si>
-    <t>LOGO! 12/24RCO, ЛОГИЧЕСКИЙ МОДУЛЬ, БЕЗ ДИСПЛЕЯ, НАПРЯЖЕНИЕ ПИТАНИЯ/ВХОДЫ/ВЫХОДЫ: 12/24В DC/РЕЛЕ, 8 ДИСКРЕТНЫХ ВХОДОВ (4 АНАЛОГОВЫХ)/4 ДИСКРЕТНЫХ ВЫХОДА, ПАМЯТЬ НА 200 БЛОКОВ, РАСШИРЯЕМЫЙ ВНЕШНИМИ МОДУЛЯМИ</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
+    <t>newdelivery_qty_1</t>
+  </si>
+  <si>
+    <t>newdelivery_qty_2</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Rockwell Automation</t>
+  </si>
+  <si>
+    <t>Schneider Electric</t>
+  </si>
+  <si>
+    <t>Wonderware (AVEVA)</t>
+  </si>
+  <si>
+    <t>Inductive Automation</t>
+  </si>
+  <si>
+    <t>Honeywell</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Mitsubishi Electric</t>
+  </si>
+  <si>
+    <t>Cognex</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
+    <t>SICK AG</t>
+  </si>
+  <si>
+    <t>Endress+Hauser</t>
+  </si>
+  <si>
+    <t>Agilent Technologies</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>Fluke</t>
+  </si>
+  <si>
+    <t>Yokogawa</t>
+  </si>
+  <si>
+    <t>Testo</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>Baldor Electric (часть ABB)</t>
+  </si>
+  <si>
+    <t>APC (часть Schneider Electric)</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>Tripp Lite</t>
+  </si>
+  <si>
+    <t>Системы управления движением</t>
+  </si>
+  <si>
+    <t>Системы автоматизации с ЧПУ</t>
+  </si>
+  <si>
+    <t>Соединители и шкафы управления</t>
+  </si>
+  <si>
+    <t>Системы визуализации и контроля</t>
+  </si>
+  <si>
+    <t>Программное обеспечение для HMI</t>
+  </si>
+  <si>
+    <t>Системы управления процессом</t>
+  </si>
+  <si>
+    <t>Системы хнанения данных (СХД)</t>
+  </si>
+  <si>
+    <t>Промышленные компьютеры</t>
+  </si>
+  <si>
+    <t>Системы идентификации</t>
+  </si>
+  <si>
+    <t>Системы машинного зрения</t>
+  </si>
+  <si>
+    <t>Газовый анализ</t>
+  </si>
+  <si>
+    <t>Хроматография</t>
+  </si>
+  <si>
+    <t>Контрольно-измерительные приборы</t>
+  </si>
+  <si>
+    <t>Измерение давления</t>
+  </si>
+  <si>
+    <t>Измерение температуры</t>
+  </si>
+  <si>
+    <t>Измерение уровня</t>
+  </si>
+  <si>
+    <t>Расходомеры</t>
+  </si>
+  <si>
+    <t>Промышленные реле и датчики</t>
+  </si>
+  <si>
+    <t>Трансформаторы</t>
+  </si>
+  <si>
+    <t>Аппаратура защиты</t>
+  </si>
+  <si>
+    <t>Коммутационные аппараты</t>
+  </si>
+  <si>
+    <t>Электродвигатели</t>
+  </si>
+  <si>
+    <t>Частотные преобразователи</t>
+  </si>
+  <si>
+    <t>DC-DC преобразователи</t>
+  </si>
+  <si>
+    <t>Расширенные блоки питания</t>
+  </si>
+  <si>
+    <t>Базовые блоки питания</t>
+  </si>
+  <si>
+    <t>Источники бесперебойного питания</t>
+  </si>
+  <si>
+    <t>DC/DC преобразователи</t>
+  </si>
+  <si>
+    <t>Аксессуары и дополнительные компоненты</t>
+  </si>
+  <si>
+    <t>Цифровые приложения и сервисы для производства</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект</t>
+  </si>
+  <si>
+    <t>ПО для систем автоматизации</t>
+  </si>
+  <si>
+    <t>Промышленный Ethernet</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Системы телеметрии</t>
+  </si>
+  <si>
+    <t>Беспроводная промышленная связь</t>
+  </si>
+  <si>
+    <t>Системы управления зданиями</t>
+  </si>
+  <si>
+    <t>Противопожарная безопасность</t>
+  </si>
+  <si>
+    <t>Контроль доступа и безопасность</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>Распределение энергии</t>
+  </si>
+  <si>
+    <t>Автоматизация подстанций</t>
+  </si>
+  <si>
+    <t>Энергоизмерение и контроль качества</t>
+  </si>
+  <si>
+    <t>КАТЕГОРИИ</t>
+  </si>
+  <si>
+    <t>Не обязательное</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Название товара </t>
+  </si>
+  <si>
+    <t>Категория  *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,14 +1030,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1039,8 +1101,79 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1074,8 +1207,14 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1168,19 +1307,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1256,6 +1382,82 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1264,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1284,15 +1486,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1302,54 +1495,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1362,57 +1618,430 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1423,6 +2052,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F0ADA89-9788-472B-BA73-514D570C40C9}" name="Table1" displayName="Table1" ref="A1:J5" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J5" xr:uid="{A40F6BD5-AF56-44C2-B0BC-6B912047E0DF}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{CA4241C1-0B97-4B76-B740-B95FE266B3B1}" name="sku" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{197F9C80-9310-4225-B4D9-D64B07874276}" name="name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2EC7E781-CFF8-4F34-8830-D1BC25F444B3}" name="description" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EBD556A1-29FA-4133-BF49-29ED0CE6143C}" name="category" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{5E42BAA8-93C8-4DCF-8FB5-A01E18744605}" name="manufacturer" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F82E6BF6-B598-430E-A968-C466B485FB91}" name="quantity" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3CBA4FE2-6741-4A37-9F14-20E158EB2573}" name="newdelivery_qty_1" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BD74E405-9893-4E1C-A302-F795FD3A6DE8}" name="newdelivery_date_1" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{2D626415-89DA-48B4-89BF-527A56AC6460}" name="newdelivery_qty_2" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{EE441FC3-0082-4A79-A361-33F3C1A653E1}" name="newdelivery_date_2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,105 +2376,105 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
     <col min="2" max="2" width="145.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:2" ht="26">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:2" ht="18.5">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="46"/>
+    </row>
+    <row r="3" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-    </row>
-    <row r="4" spans="1:2" ht="18.5">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" ht="18.5">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="47"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-    </row>
-    <row r="6" spans="1:2" ht="18.5">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="47"/>
+    </row>
+    <row r="6" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
-    </row>
-    <row r="7" spans="1:2" ht="18.5">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="48"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-    </row>
-    <row r="8" spans="1:2" ht="18.5">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
-    </row>
-    <row r="9" spans="1:2" ht="18.5">
-      <c r="A9" s="35" t="s">
+      <c r="B8" s="47"/>
+    </row>
+    <row r="9" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-    </row>
-    <row r="11" spans="1:2" ht="26">
-      <c r="A11" s="30" t="s">
+      <c r="B9" s="47"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+    </row>
+    <row r="11" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="30"/>
-    </row>
-    <row r="12" spans="1:2" ht="18.5">
-      <c r="A12" s="28" t="s">
+      <c r="B11" s="50"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:2" ht="18.5">
-      <c r="A13" s="28" t="s">
+      <c r="B12" s="44"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-    </row>
-    <row r="15" spans="1:2" ht="26">
-      <c r="A15" s="30" t="s">
+      <c r="B13" s="44"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:2" ht="26" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="30"/>
-    </row>
-    <row r="16" spans="1:2" ht="18.5">
-      <c r="A16" s="31" t="s">
+      <c r="B15" s="50"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="31"/>
-    </row>
-    <row r="17" spans="1:2" ht="18.5">
+      <c r="B16" s="51"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +2482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.5">
+    <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1842,7 +2490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.5">
+    <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1850,18 +2498,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="32"/>
-    </row>
-    <row r="21" spans="1:2" ht="16" thickBot="1">
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -1874,11 +2527,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A6" location="'Описание полей'!A1" display="Подробные рекомендации по заполнению полей см. на листе «Описание полей»" xr:uid="{DA174289-F974-4EB0-9097-2154E92FF5DA}"/>
@@ -1890,765 +2538,806 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A50B3F2-C0E5-4299-BE77-6B18CBC8BCE2}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="24.08984375" customWidth="1"/>
     <col min="3" max="3" width="81.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6328125" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="41">
+        <v>1</v>
+      </c>
+      <c r="G2" s="41">
+        <v>3</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="41">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="42">
+        <v>2</v>
+      </c>
+      <c r="G3" s="42">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="42">
+        <v>8</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="42">
+        <v>3</v>
+      </c>
+      <c r="G4" s="42">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="42">
+        <v>9</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="D5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="43">
+        <v>4</v>
+      </c>
+      <c r="G5" s="43">
+        <v>6</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29">
-      <c r="A2" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="I5" s="43">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="58">
-      <c r="A3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="27">
-        <v>11</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="58">
-      <c r="A4" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="43.5">
-      <c r="A5" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="27">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5">
-      <c r="A6" s="24" t="s">
+      <c r="J5" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.5">
-      <c r="A7" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="58">
-      <c r="A8" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="58">
-      <c r="A9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="58">
-      <c r="A10" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" s="27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="37"/>
-      <c r="B12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="38"/>
-      <c r="B14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="37"/>
-    </row>
-    <row r="15" spans="1:7" ht="43.5">
-      <c r="A15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.5">
-      <c r="A16" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="43.5">
-      <c r="A17" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F17" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29">
-      <c r="A18" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="29">
-      <c r="A21" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29">
-      <c r="A22" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F23" s="27">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="43.5">
-      <c r="A24" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="27">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="58">
-      <c r="A25" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="58">
-      <c r="A26" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="27">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CDC273A-6900-402E-B429-6E4A02A89879}">
+          <x14:formula1>
+            <xm:f>Производители!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC24B3C4-7664-4EC9-B74B-78EC9594227D}">
+          <x14:formula1>
+            <xm:f>Категории!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B58CD3-28FC-42AE-A80E-80D5706743BA}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="10" customWidth="1"/>
-    <col min="2" max="3" width="70.26953125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="23.453125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="70.26953125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="23.453125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" ht="21">
-      <c r="A2" s="44" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.5">
-      <c r="A3" s="45" t="s">
+      <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="91" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="91">
-      <c r="A5" s="22" t="s">
+      <c r="E5" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="130" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="13">
         <v>22</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="26">
-      <c r="A6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="182">
-      <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="130">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="26">
-      <c r="A9" s="14" t="s">
+      <c r="E13" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="36.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="14" t="s">
+      <c r="D14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="78.5" thickBot="1">
-      <c r="A11" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="21">
-      <c r="A12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41"/>
-    </row>
-    <row r="13" spans="1:5" ht="22" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23.5" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="16">
-        <v>22</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="36.5" customHeight="1" thickBot="1">
-      <c r="A15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACD2099-4145-4E74-A1E9-79675B883E93}">
+  <dimension ref="A1:A23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32.1796875" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC449EAA-5CC5-47E7-A880-5E58D5FDF162}">
+  <dimension ref="A1:A45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="59.26953125" style="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" s="30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" s="30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>